--- a/ValueSet-adultcheck-lifecode.xlsx
+++ b/ValueSet-adultcheck-lifecode.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T11:03:31+08:00</t>
+    <t>2023-09-27T18:07:47+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Polly Peng</t>
+    <t>大世科 tsti</t>
   </si>
   <si>
     <t>Contact</t>

--- a/ValueSet-adultcheck-lifecode.xlsx
+++ b/ValueSet-adultcheck-lifecode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T18:07:47+08:00</t>
+    <t>2023-10-16T14:04:58+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-adultcheck-lifecode.xlsx
+++ b/ValueSet-adultcheck-lifecode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T14:04:58+08:00</t>
+    <t>2023-10-16T16:31:57+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-adultcheck-lifecode.xlsx
+++ b/ValueSet-adultcheck-lifecode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T16:31:57+08:00</t>
+    <t>2023-10-17T10:22:38+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-adultcheck-lifecode.xlsx
+++ b/ValueSet-adultcheck-lifecode.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T10:22:38+08:00</t>
+    <t>2023-11-08T11:45:10+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
